--- a/Toan11.xlsx
+++ b/Toan11.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\LTUDQL1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\LTUDQL1\DA-LTUDQL1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7305"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7305" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CauHoi" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="100">
   <si>
     <t>maCH</t>
   </si>
@@ -371,18 +371,28 @@
       <t>x = 0 tương đương với phương trình</t>
     </r>
   </si>
+  <si>
+    <t>TenCD</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -421,14 +431,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -736,8 +749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -753,7 +766,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -1179,8 +1192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D81"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1198,7 +1211,7 @@
       <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
@@ -2414,8 +2427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2425,7 +2438,7 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
